--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A7FD20-2558-42FD-A888-668915AFD02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC7D43-E4F5-4765-BA82-2FB48EBF041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -822,12 +822,16 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1:主辦行
-2:參貸行</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>000:全公司</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:國內
+B:國際</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>長度放大3-&gt;6</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,6 +1207,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1551,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2677,11 +2687,13 @@
       <c r="D58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="9">
-        <v>3</v>
+      <c r="E58" s="40">
+        <v>6</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="26"/>
+      <c r="G58" s="41" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="59" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
@@ -2700,8 +2712,8 @@
         <v>1</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="26" t="s">
-        <v>178</v>
+      <c r="G59" s="41" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2842,7 +2854,7 @@
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicMonthlyLoanData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC7D43-E4F5-4765-BA82-2FB48EBF041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C1AA95-C8F1-4B19-8998-F4EECC0465DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="180">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -535,10 +535,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -549,9 +545,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -833,6 +826,9 @@
   <si>
     <t>長度放大3-&gt;6</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,10 +1093,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,7 +1114,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,9 +1123,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,19 +1138,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1196,6 +1186,12 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1207,12 +1203,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1239,9 +1229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1279,9 +1269,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1314,26 +1304,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,26 +1339,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1561,33 +1517,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.5546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="71.5546875" style="17" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
     </row>
@@ -1646,7 +1602,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
@@ -1656,9 +1612,9 @@
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1677,11 +1633,11 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -1700,8 +1656,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1719,7 +1675,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -1738,8 +1694,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1757,7 +1713,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -1776,15 +1732,15 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="162" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="162" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1794,10 +1750,10 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
@@ -1818,8 +1774,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1839,7 +1795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>9</v>
       </c>
@@ -1860,8 +1816,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1879,7 +1835,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>11</v>
       </c>
@@ -1898,8 +1854,8 @@
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1915,11 +1871,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>13</v>
       </c>
@@ -1936,17 +1892,17 @@
         <v>3</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -1957,17 +1913,17 @@
       <c r="F22" s="9">
         <v>2</v>
       </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
@@ -1978,12 +1934,12 @@
       <c r="F23" s="9">
         <v>2</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="G23" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1999,19 +1955,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>70</v>
@@ -2020,10 +1976,10 @@
         <v>8</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2039,11 +1995,11 @@
         <v>1</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="G26" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19</v>
       </c>
@@ -2060,12 +2016,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="G27" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -2081,11 +2037,11 @@
         <v>2</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>21</v>
       </c>
@@ -2104,8 +2060,8 @@
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2123,7 +2079,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>23</v>
       </c>
@@ -2142,10 +2098,10 @@
       <c r="F31" s="9">
         <v>4</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2163,9 +2119,9 @@
       <c r="F32" s="9">
         <v>4</v>
       </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>25</v>
       </c>
@@ -2182,17 +2138,17 @@
         <v>8</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>70</v>
@@ -2201,17 +2157,17 @@
         <v>8</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" s="13" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -2220,12 +2176,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="G35" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2237,13 +2193,13 @@
       <c r="D36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <v>3</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>29</v>
       </c>
@@ -2262,10 +2218,10 @@
       <c r="F37" s="9">
         <v>2</v>
       </c>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2283,9 +2239,9 @@
       <c r="F38" s="9">
         <v>2</v>
       </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>31</v>
       </c>
@@ -2304,10 +2260,10 @@
       <c r="F39" s="9">
         <v>2</v>
       </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -2325,9 +2281,9 @@
       <c r="F40" s="9">
         <v>2</v>
       </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>33</v>
       </c>
@@ -2346,10 +2302,10 @@
       <c r="F41" s="9">
         <v>2</v>
       </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2367,9 +2323,9 @@
       <c r="F42" s="9">
         <v>2</v>
       </c>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>35</v>
       </c>
@@ -2388,14 +2344,14 @@
       <c r="F43" s="9">
         <v>2</v>
       </c>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>89</v>
@@ -2407,9 +2363,9 @@
         <v>8</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>37</v>
       </c>
@@ -2426,10 +2382,10 @@
         <v>8</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2445,14 +2401,14 @@
         <v>8</v>
       </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>39</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>92</v>
@@ -2464,17 +2420,17 @@
         <v>8</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>50</v>
@@ -2483,19 +2439,19 @@
         <v>3</v>
       </c>
       <c r="F48" s="9"/>
-      <c r="G48" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>50</v>
@@ -2504,19 +2460,19 @@
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+      <c r="G49" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>50</v>
@@ -2525,11 +2481,11 @@
         <v>3</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>43</v>
       </c>
@@ -2548,12 +2504,12 @@
       <c r="F51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+    <row r="52" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2571,11 +2527,11 @@
       <c r="F52" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>45</v>
       </c>
@@ -2592,17 +2548,17 @@
         <v>7</v>
       </c>
       <c r="F53" s="9"/>
-      <c r="G53" s="26"/>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -2611,9 +2567,9 @@
         <v>3</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" s="13" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>47</v>
       </c>
@@ -2630,12 +2586,12 @@
         <v>1</v>
       </c>
       <c r="F55" s="9"/>
-      <c r="G55" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="G55" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
         <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -2653,17 +2609,17 @@
       <c r="F56" s="9">
         <v>2</v>
       </c>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>49</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>70</v>
@@ -2672,10 +2628,10 @@
         <v>8</v>
       </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
         <v>50</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -2687,15 +2643,15 @@
       <c r="D58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="34">
         <v>6</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G58" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="13" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>51</v>
       </c>
@@ -2712,12 +2668,12 @@
         <v>1</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+      <c r="G59" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
         <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -2733,9 +2689,9 @@
         <v>8</v>
       </c>
       <c r="F60" s="8"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>53</v>
       </c>
@@ -2754,10 +2710,10 @@
       <c r="F61" s="9">
         <v>2</v>
       </c>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <v>54</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -2775,17 +2731,17 @@
       <c r="F62" s="9">
         <v>2</v>
       </c>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>70</v>
@@ -2794,14 +2750,14 @@
         <v>8</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21">
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>116</v>
@@ -2813,17 +2769,17 @@
         <v>8</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>3</v>
@@ -2832,426 +2788,426 @@
         <v>1</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="G65" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
         <v>58</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>167</v>
+      <c r="B66" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="29">
         <v>3</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F66" s="30"/>
+      <c r="G66" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>59</v>
       </c>
-      <c r="B67" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>169</v>
+      <c r="B67" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67" s="32">
         <v>3</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21">
+      <c r="F67" s="33"/>
+      <c r="G67" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
         <v>60</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="24" t="s">
         <v>120</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="27"/>
+        <v>179</v>
+      </c>
+      <c r="E68" s="25"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="18"/>
-    </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>61</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="25">
         <v>6</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="18"/>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
         <v>62</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="D70" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="27"/>
+        <v>179</v>
+      </c>
+      <c r="E70" s="25"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>63</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>128</v>
+      <c r="B71" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="25">
         <v>6</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="18"/>
-    </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="18"/>
-    </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="18"/>
-    </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="G80" s="17"/>
+    </row>
+    <row r="81" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="18"/>
-    </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="18"/>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="18"/>
-    </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="18"/>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="18"/>
-    </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="18"/>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="18"/>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16"/>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="18"/>
-    </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="18"/>
-    </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="15"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="18"/>
-    </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="18"/>
-    </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="18"/>
-    </row>
-    <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21"/>
+      <c r="G96" s="17"/>
+    </row>
+    <row r="97" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="18"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
+      <c r="A98" s="16"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
+      <c r="A99" s="16"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
+      <c r="A100" s="16"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
+      <c r="A101" s="16"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="17"/>
+      <c r="A102" s="16"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
+      <c r="A103" s="16"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
+      <c r="A104" s="16"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
+      <c r="A105" s="16"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
+      <c r="A106" s="16"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
+      <c r="A107" s="16"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
+      <c r="A108" s="16"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
+      <c r="A109" s="16"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
+      <c r="A110" s="16"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
+      <c r="A111" s="16"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
+      <c r="A112" s="16"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
+      <c r="A113" s="16"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
+      <c r="A114" s="16"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
+      <c r="A115" s="16"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
+      <c r="A116" s="16"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
+      <c r="A117" s="16"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
+      <c r="A118" s="16"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
+      <c r="A119" s="16"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
+      <c r="A120" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3314,32 +3270,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="33.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="C2" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
